--- a/Mystore Test Cases.xlsx
+++ b/Mystore Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alwin\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alwin\IdeaProjects\E-Commerce-application-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825812C8-7BB0-4261-997B-DFC994BF8E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A0B1F4-0032-4467-B7D4-13C4EFB342AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D84A0BD0-F266-4CF6-824C-5967018E624D}"/>
+    <workbookView xWindow="3360" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{D84A0BD0-F266-4CF6-824C-5967018E624D}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios For MyStore" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Regression testing</t>
+    <t>Functional testing</t>
   </si>
 </sst>
 </file>
